--- a/嘉立创pcb/光辉棒bom.xlsx
+++ b/嘉立创pcb/光辉棒bom.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="光辉棒bom" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="BOM_Board1_PCB1_2024-03-25" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="76">
   <si>
     <t>No.</t>
   </si>
@@ -43,6 +43,21 @@
     <t>Supplier</t>
   </si>
   <si>
+    <t>Primary Category</t>
+  </si>
+  <si>
+    <t>Secondary Category</t>
+  </si>
+  <si>
+    <t>Pins</t>
+  </si>
+  <si>
+    <t>LCSC Price</t>
+  </si>
+  <si>
+    <t>Layer</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -61,6 +76,9 @@
     <t/>
   </si>
   <si>
+    <t>T</t>
+  </si>
+  <si>
     <t>10uF</t>
   </si>
   <si>
@@ -82,9 +100,33 @@
     <t>LCSC</t>
   </si>
   <si>
+    <t>电容</t>
+  </si>
+  <si>
+    <t>钽电容</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
+    <t>ESP8266</t>
+  </si>
+  <si>
+    <t>ESP12E</t>
+  </si>
+  <si>
+    <t>WIFIM-SMD_ESP-12F-ESP8266MOD</t>
+  </si>
+  <si>
+    <t>C9900003049</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>5.1K</t>
   </si>
   <si>
@@ -94,73 +136,85 @@
     <t>R0603</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>ESP8266</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>WIFIM-SMD_ESP-12F-ESP8266MOD</t>
-  </si>
-  <si>
-    <t>C9900003049</t>
+    <t>电阻</t>
+  </si>
+  <si>
+    <t>贴片电阻</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>CH340G</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>SOIC-16_L9.9-W3.9-P1.27-LS6.0-BL</t>
+    <t>AMS1117-3.3</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>SOT-223-3_L6.5-W3.4-P2.30-LS7.0-BR</t>
+  </si>
+  <si>
+    <t>AMS</t>
+  </si>
+  <si>
+    <t>C6186</t>
+  </si>
+  <si>
+    <t>电源芯片</t>
+  </si>
+  <si>
+    <t>线性稳压器(LDO)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5-146480-3</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>HDR-TH_3P-P2.54-V-M-2</t>
+  </si>
+  <si>
+    <t>TE Connectivity(泰科电子)</t>
+  </si>
+  <si>
+    <t>C6818958</t>
+  </si>
+  <si>
+    <t>连接器</t>
+  </si>
+  <si>
+    <t>排针</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>CH340C</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>SOP-16_L10.0-W3.9-P1.27-LS6.0-BL</t>
   </si>
   <si>
     <t>WCH(南京沁恒)</t>
   </si>
   <si>
-    <t>C14267</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>AMS1117-3.3</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>SOT-223-3_L6.5-W3.4-P2.30-LS7.0-BR</t>
-  </si>
-  <si>
-    <t>AMS</t>
-  </si>
-  <si>
-    <t>C6186</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>5-146480-3</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>HDR-TH_3P-P2.54-V-M-2</t>
-  </si>
-  <si>
-    <t>TE Connectivity(泰科电子)</t>
-  </si>
-  <si>
-    <t>C6818958</t>
+    <t>C84681</t>
+  </si>
+  <si>
+    <t>通信接口芯片/UART/485/232</t>
+  </si>
+  <si>
+    <t>USB芯片</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>8</t>
@@ -179,6 +233,12 @@
   </si>
   <si>
     <t>C2765186</t>
+  </si>
+  <si>
+    <t>USB连接器</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
 </sst>
 </file>
@@ -555,16 +615,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="10" width="20" customWidth="1"/>
+    <col min="1" max="15" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -595,266 +655,401 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" t="s">
         <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
